--- a/wine.xlsx
+++ b/wine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="7955" tabRatio="500"/>
+    <workbookView windowWidth="23040" windowHeight="8555"/>
   </bookViews>
   <sheets>
     <sheet name="wine" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="32">
+  <si>
+    <t>Категория</t>
+  </si>
   <si>
     <t>Название</t>
   </si>
@@ -41,25 +44,10 @@
     <t>Картинка</t>
   </si>
   <si>
-    <t>Изабелла</t>
-  </si>
-  <si>
-    <t>izabella.png</t>
-  </si>
-  <si>
-    <t>Гранатовый браслет</t>
-  </si>
-  <si>
-    <t>Мускат розовый</t>
-  </si>
-  <si>
-    <t>granatovyi_braslet.png</t>
-  </si>
-  <si>
-    <t>Шардоне</t>
-  </si>
-  <si>
-    <t>shardone.png</t>
+    <t>Акция</t>
+  </si>
+  <si>
+    <t>Белые вина</t>
   </si>
   <si>
     <t>Белая леди</t>
@@ -71,12 +59,27 @@
     <t>belaya_ledi.png</t>
   </si>
   <si>
+    <t>Выгодное предложение</t>
+  </si>
+  <si>
     <t>Ркацители</t>
   </si>
   <si>
     <t>rkaciteli.png</t>
   </si>
   <si>
+    <t>Красные вина</t>
+  </si>
+  <si>
+    <t>Черный лекарь</t>
+  </si>
+  <si>
+    <t>Качич</t>
+  </si>
+  <si>
+    <t>chernyi_lekar.png</t>
+  </si>
+  <si>
     <t>Хванчкара</t>
   </si>
   <si>
@@ -84,6 +87,42 @@
   </si>
   <si>
     <t>hvanchkara.png</t>
+  </si>
+  <si>
+    <t>Кокур</t>
+  </si>
+  <si>
+    <t>kokur.png</t>
+  </si>
+  <si>
+    <t>Киндзмараули</t>
+  </si>
+  <si>
+    <t>Саперави</t>
+  </si>
+  <si>
+    <t>kindzmarauli.png</t>
+  </si>
+  <si>
+    <t>Напитки</t>
+  </si>
+  <si>
+    <t>Чача</t>
+  </si>
+  <si>
+    <t>chacha.png</t>
+  </si>
+  <si>
+    <t>Коньяк кизиловый</t>
+  </si>
+  <si>
+    <t>konyak_kizilovyi.png</t>
+  </si>
+  <si>
+    <t>Коньяк классический</t>
+  </si>
+  <si>
+    <t>konyak_klassicheskyi.png</t>
   </si>
 </sst>
 </file>
@@ -96,25 +135,33 @@
     <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <charset val="204"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="204"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <charset val="204"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -571,160 +618,163 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -777,7 +827,7 @@
     <cellStyle name="40% — Акцент6" xfId="47" builtinId="51"/>
     <cellStyle name="60% — Акцент6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -787,56 +837,56 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Sheets">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="000000"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4285F4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="EA4335"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="FBBC04"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="34A853"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="FF6D01"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="46BDC6"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="1155CC"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="1155CC"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Arial"/>
-        <a:ea typeface="SimSun"/>
-        <a:cs typeface="Times New Roman"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -848,160 +898,131 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -1015,20 +1036,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4351851851852" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="6" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="14.4444444444444" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="20.4351851851852" customWidth="1"/>
-    <col min="2" max="2" width="18.712962962963" customWidth="1"/>
-    <col min="4" max="4" width="32.287037037037" customWidth="1"/>
+    <col min="1" max="1" width="20.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="27.6666666666667" customWidth="1"/>
+    <col min="3" max="3" width="23.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="32.3333333333333" customWidth="1"/>
+    <col min="5" max="5" width="24.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="24.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:4">
+    <row r="1" ht="13.8" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1041,94 +1065,176 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2">
+    <row r="2" ht="13.2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3">
+        <v>399</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" ht="13.2" spans="1:6">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3">
+        <v>499</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" ht="13.2" spans="1:6">
+      <c r="A4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3">
+        <v>399</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" ht="13.2" spans="1:6">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3">
+        <v>550</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" ht="13.2" spans="1:6">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="3">
+        <v>450</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3">
+        <v>550</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3">
+        <v>299</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3">
         <v>350</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>5</v>
-      </c>
+      <c r="E9" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="4"/>
     </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2">
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3">
         <v>350</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="2">
-        <v>350</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2">
-        <v>399</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="2">
-        <v>499</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2">
-        <v>550</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>18</v>
-      </c>
+      <c r="E10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.39375" footer="0.39375"/>
-  <pageSetup paperSize="9" fitToWidth="0" pageOrder="overThenDown" orientation="portrait"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>